--- a/my project.xlsx
+++ b/my project.xlsx
@@ -5,18 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WINDOWS 10\Desktop\final project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TRETEC\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1480BFFF-E111-4FFB-A65E-546A84A73590}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2BE31D3-BABE-4BBB-AB95-56E7B06F07A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="feuille 1" sheetId="30" r:id="rId1"/>
     <sheet name="feuille 2" sheetId="31" r:id="rId2"/>
     <sheet name="feuille 3" sheetId="32" r:id="rId3"/>
     <sheet name="feuille 4" sheetId="33" r:id="rId4"/>
+    <sheet name="feuille 5" sheetId="34" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="92">
   <si>
     <t>students</t>
   </si>
@@ -133,6 +134,196 @@
   </si>
   <si>
     <t>Psychology</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>QTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      PU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       PT</t>
+  </si>
+  <si>
+    <t>Remise</t>
+  </si>
+  <si>
+    <t>Val Remise</t>
+  </si>
+  <si>
+    <t>Total a payer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    - DZD</t>
+  </si>
+  <si>
+    <t>TVA:                          19%</t>
+  </si>
+  <si>
+    <t>120,00 DZD</t>
+  </si>
+  <si>
+    <t>56,00 DZD</t>
+  </si>
+  <si>
+    <t>70,00 DZD</t>
+  </si>
+  <si>
+    <t>430,00 DZD</t>
+  </si>
+  <si>
+    <t>230,00 DZD</t>
+  </si>
+  <si>
+    <t>10,00 DZD</t>
+  </si>
+  <si>
+    <t>5,00 DZD</t>
+  </si>
+  <si>
+    <t>5.040,00 DZD</t>
+  </si>
+  <si>
+    <t>1.200,00 DZD</t>
+  </si>
+  <si>
+    <t>480,00 DZD</t>
+  </si>
+  <si>
+    <t>33,00 DZD</t>
+  </si>
+  <si>
+    <t>15,00 DZD</t>
+  </si>
+  <si>
+    <t>24,00 DZD</t>
+  </si>
+  <si>
+    <t>360,00 DZD</t>
+  </si>
+  <si>
+    <t>280,00 DZD</t>
+  </si>
+  <si>
+    <t>140,00 DZD</t>
+  </si>
+  <si>
+    <t>3.010,00 DZD</t>
+  </si>
+  <si>
+    <t>5.290,00 DZD</t>
+  </si>
+  <si>
+    <t>20,00 DZD</t>
+  </si>
+  <si>
+    <t>40,00 DZD</t>
+  </si>
+  <si>
+    <t>3.600,00 DZD</t>
+  </si>
+  <si>
+    <t>1.920,00 DZD</t>
+  </si>
+  <si>
+    <t>165,00 DZD</t>
+  </si>
+  <si>
+    <t>2.400,00 DZD</t>
+  </si>
+  <si>
+    <t>150,00 DZD</t>
+  </si>
+  <si>
+    <t>18,00 DZD</t>
+  </si>
+  <si>
+    <t>14,00 DZD</t>
+  </si>
+  <si>
+    <t>7,00 DZD</t>
+  </si>
+  <si>
+    <t>301,00 DZD</t>
+  </si>
+  <si>
+    <t>529,00 DZD</t>
+  </si>
+  <si>
+    <t>504,00 DZD</t>
+  </si>
+  <si>
+    <t>192,00 DZD</t>
+  </si>
+  <si>
+    <t>8,25 DZD</t>
+  </si>
+  <si>
+    <t>240,00 DZD</t>
+  </si>
+  <si>
+    <t>7,50 DZD</t>
+  </si>
+  <si>
+    <t>6,00 DZD</t>
+  </si>
+  <si>
+    <t>342,00 DZD</t>
+  </si>
+  <si>
+    <t>266,00 DZD</t>
+  </si>
+  <si>
+    <t>133,00 DZD</t>
+  </si>
+  <si>
+    <t>2.709,00 DZD</t>
+  </si>
+  <si>
+    <t>4.761,00 DZD</t>
+  </si>
+  <si>
+    <t>4.536,00 DZD</t>
+  </si>
+  <si>
+    <t>3.240,00 DZD</t>
+  </si>
+  <si>
+    <t>1.728,00 DZD</t>
+  </si>
+  <si>
+    <t>156,75 DZD</t>
+  </si>
+  <si>
+    <t>2.160,00 DZD</t>
+  </si>
+  <si>
+    <t>142,50 DZD</t>
+  </si>
+  <si>
+    <t>114,00 DZD</t>
+  </si>
+  <si>
+    <t>Totale facture:     20.348,25 DZD</t>
+  </si>
+  <si>
+    <t>Val TVA:             3.866,17 DZD</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">TTC:               </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="4" tint="-0.499984740745262"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t xml:space="preserve"> 24.214,42 DZD</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -142,7 +333,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="14">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -210,8 +401,24 @@
       <family val="2"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="4" tint="-0.499984740745262"/>
+      <name val="宋体"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -254,8 +461,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -359,6 +572,120 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -373,7 +700,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -401,6 +728,24 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -410,6 +755,15 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -419,33 +773,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -457,6 +802,33 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -468,7 +840,223 @@
     <cellStyle name="Normal 4" xfId="4" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
     <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="9">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -492,6 +1080,22 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{58CEBB1C-63A2-4B23-B025-503D8E366BEC}" name="Table1" displayName="Table1" ref="A1:G15" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="A1:G15" xr:uid="{58CEBB1C-63A2-4B23-B025-503D8E366BEC}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{C26DB452-CAE8-4D50-82AF-986EE2B2BFC7}" name="ID" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{76C9D2BD-D07F-4DCA-84A1-059F728A8649}" name="      PU" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{7017561D-B1B9-4EE5-B5E3-2C4A204BAB71}" name="QTE" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{DB22B957-5049-4210-9EB4-EE1DD11C6A2C}" name="       PT" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{801EBFDA-A774-4766-B948-DAD58A43764B}" name="Remise" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{7A90EE86-14C5-4ED3-9F7E-2A38290ACC6B}" name="Val Remise" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{5D461916-C8D7-4F49-AFA8-2B53CBEA0CDE}" name="Total a payer" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -763,19 +1367,19 @@
       <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" customWidth="1"/>
+    <col min="2" max="2" width="14.296875" customWidth="1"/>
     <col min="3" max="3" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="19.5" customHeight="1">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="11"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="17"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
@@ -1244,136 +1848,148 @@
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.6"/>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="20" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20" t="s">
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="13">
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="22">
         <v>8177</v>
       </c>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14">
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23">
         <f>(D2/8)</f>
         <v>1022.125</v>
       </c>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="13">
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="22">
         <v>4877</v>
       </c>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14">
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23">
         <f t="shared" ref="G3:G6" si="0">(D3/8)</f>
         <v>609.625</v>
       </c>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="13">
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="22">
         <v>7761</v>
       </c>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14">
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23">
         <f t="shared" si="0"/>
         <v>970.125</v>
       </c>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="13">
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="22">
         <v>15071</v>
       </c>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14">
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23">
         <f t="shared" si="0"/>
         <v>1883.875</v>
       </c>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="13">
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="22">
         <v>4188</v>
       </c>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14">
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23">
         <f t="shared" si="0"/>
         <v>523.5</v>
       </c>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="18">
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="19">
         <f>SUM(D2,D3,D4,D5,D6)</f>
         <v>40074</v>
       </c>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22">
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20">
         <f>(D7/40)</f>
         <v>1001.85</v>
       </c>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="G4:I4"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="D7:F7"/>
     <mergeCell ref="G7:I7"/>
@@ -1383,18 +1999,6 @@
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="D6:F6"/>
     <mergeCell ref="G6:I6"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="G2:I2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1406,223 +2010,223 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10:I10"/>
+      <selection activeCell="D1" sqref="D1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.6"/>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16" t="s">
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12">
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21">
         <v>14127</v>
       </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="15">
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="28">
         <f>(D2/5)</f>
         <v>2825.4</v>
       </c>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12">
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21">
         <v>5253</v>
       </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="15">
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="28">
         <f>(D3/5)</f>
         <v>1050.5999999999999</v>
       </c>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12">
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21">
         <v>4965</v>
       </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="15">
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="28">
         <f>(D4/5)</f>
         <v>993</v>
       </c>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12">
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21">
         <v>6247</v>
       </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="15">
-        <f t="shared" ref="G5:G10" si="0">(D5/5)</f>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="28">
+        <f t="shared" ref="G5:G9" si="0">(D5/5)</f>
         <v>1249.4000000000001</v>
       </c>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12">
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21">
         <v>2240</v>
       </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="15">
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="28">
         <f t="shared" si="0"/>
         <v>448</v>
       </c>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12">
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21">
         <v>1887</v>
       </c>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="15">
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="28">
         <f t="shared" si="0"/>
         <v>377.4</v>
       </c>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12">
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21">
         <v>2661</v>
       </c>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="15">
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="28">
         <f t="shared" si="0"/>
         <v>532.20000000000005</v>
       </c>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12">
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21">
         <v>2694</v>
       </c>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="15">
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="28">
         <f t="shared" si="0"/>
         <v>538.79999999999995</v>
       </c>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16">
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25">
         <f>SUM(D2:F9)</f>
         <v>40074</v>
       </c>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="17">
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="29">
         <f>(D10/40)</f>
         <v>1001.85</v>
       </c>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="D9:F9"/>
     <mergeCell ref="G9:I9"/>
     <mergeCell ref="A10:C10"/>
     <mergeCell ref="D10:F10"/>
     <mergeCell ref="G10:I10"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="G2:I2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1632,418 +2236,370 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42991E75-B106-4F62-8674-154EA2E6ACFC}">
   <dimension ref="A1:P11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O1" sqref="O1:P2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.6"/>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="24" t="s">
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="25"/>
-      <c r="I1" s="24" t="s">
+      <c r="H1" s="31"/>
+      <c r="I1" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="25"/>
-      <c r="K1" s="24" t="s">
+      <c r="J1" s="31"/>
+      <c r="K1" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="25"/>
-      <c r="M1" s="24" t="s">
+      <c r="L1" s="31"/>
+      <c r="M1" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="N1" s="25"/>
-      <c r="O1" s="24" t="s">
+      <c r="N1" s="31"/>
+      <c r="O1" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="P1" s="25"/>
+      <c r="P1" s="31"/>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16" t="s">
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="27"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="33"/>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12">
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21">
         <v>1358</v>
       </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="13">
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="22">
         <v>972</v>
       </c>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13">
+      <c r="H3" s="22"/>
+      <c r="I3" s="22">
         <v>1579</v>
       </c>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13">
+      <c r="J3" s="22"/>
+      <c r="K3" s="22">
         <v>9567</v>
       </c>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13">
+      <c r="L3" s="22"/>
+      <c r="M3" s="22">
         <v>651</v>
       </c>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13">
+      <c r="N3" s="22"/>
+      <c r="O3" s="22">
         <f>SUM(D3,G3,I3,K3,M3)</f>
         <v>14127</v>
       </c>
-      <c r="P3" s="13"/>
+      <c r="P3" s="22"/>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12">
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21">
         <v>849</v>
       </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="13">
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="22">
         <v>608</v>
       </c>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13">
+      <c r="H4" s="22"/>
+      <c r="I4" s="22">
         <v>1688</v>
       </c>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13">
+      <c r="J4" s="22"/>
+      <c r="K4" s="22">
         <v>1793</v>
       </c>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13">
+      <c r="L4" s="22"/>
+      <c r="M4" s="22">
         <v>315</v>
       </c>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13">
+      <c r="N4" s="22"/>
+      <c r="O4" s="22">
         <f t="shared" ref="O4:O10" si="0">SUM(D4,G4,I4,K4,M4)</f>
         <v>5253</v>
       </c>
-      <c r="P4" s="13"/>
+      <c r="P4" s="22"/>
     </row>
     <row r="5" spans="1:16">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12">
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21">
         <v>1355</v>
       </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="13">
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="22">
         <v>552</v>
       </c>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13">
+      <c r="H5" s="22"/>
+      <c r="I5" s="22">
         <v>1889</v>
       </c>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13">
+      <c r="J5" s="22"/>
+      <c r="K5" s="22">
         <v>618</v>
       </c>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13">
+      <c r="L5" s="22"/>
+      <c r="M5" s="22">
         <v>551</v>
       </c>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13">
+      <c r="N5" s="22"/>
+      <c r="O5" s="22">
         <f t="shared" si="0"/>
         <v>4965</v>
       </c>
-      <c r="P5" s="13"/>
+      <c r="P5" s="22"/>
     </row>
     <row r="6" spans="1:16">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12">
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21">
         <v>3155</v>
       </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="13">
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="22">
         <v>542</v>
       </c>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13">
+      <c r="H6" s="22"/>
+      <c r="I6" s="22">
         <v>316</v>
       </c>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13">
+      <c r="J6" s="22"/>
+      <c r="K6" s="22">
         <v>547</v>
       </c>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13">
+      <c r="L6" s="22"/>
+      <c r="M6" s="22">
         <v>1687</v>
       </c>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13">
+      <c r="N6" s="22"/>
+      <c r="O6" s="22">
         <f t="shared" si="0"/>
         <v>6247</v>
       </c>
-      <c r="P6" s="13"/>
+      <c r="P6" s="22"/>
     </row>
     <row r="7" spans="1:16">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12">
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21">
         <v>173</v>
       </c>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="13">
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="22">
         <v>346</v>
       </c>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13">
+      <c r="H7" s="22"/>
+      <c r="I7" s="22">
         <v>615</v>
       </c>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13">
+      <c r="J7" s="22"/>
+      <c r="K7" s="22">
         <v>948</v>
       </c>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13">
+      <c r="L7" s="22"/>
+      <c r="M7" s="22">
         <v>158</v>
       </c>
-      <c r="N7" s="13"/>
-      <c r="O7" s="13">
+      <c r="N7" s="22"/>
+      <c r="O7" s="22">
         <f t="shared" si="0"/>
         <v>2240</v>
       </c>
-      <c r="P7" s="13"/>
+      <c r="P7" s="22"/>
     </row>
     <row r="8" spans="1:16">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12">
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21">
         <v>135</v>
       </c>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="13">
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="22">
         <v>234</v>
       </c>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13">
+      <c r="H8" s="22"/>
+      <c r="I8" s="22">
         <v>632</v>
       </c>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13">
+      <c r="J8" s="22"/>
+      <c r="K8" s="22">
         <v>568</v>
       </c>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13">
+      <c r="L8" s="22"/>
+      <c r="M8" s="22">
         <v>318</v>
       </c>
-      <c r="N8" s="13"/>
-      <c r="O8" s="13">
+      <c r="N8" s="22"/>
+      <c r="O8" s="22">
         <f t="shared" si="0"/>
         <v>1887</v>
       </c>
-      <c r="P8" s="13"/>
+      <c r="P8" s="22"/>
     </row>
     <row r="9" spans="1:16">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12">
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21">
         <v>561</v>
       </c>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="13">
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="22">
         <v>972</v>
       </c>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13">
+      <c r="H9" s="22"/>
+      <c r="I9" s="22">
         <v>193</v>
       </c>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13">
+      <c r="J9" s="22"/>
+      <c r="K9" s="22">
         <v>784</v>
       </c>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13">
+      <c r="L9" s="22"/>
+      <c r="M9" s="22">
         <v>151</v>
       </c>
-      <c r="N9" s="13"/>
-      <c r="O9" s="13">
+      <c r="N9" s="22"/>
+      <c r="O9" s="22">
         <f t="shared" si="0"/>
         <v>2661</v>
       </c>
-      <c r="P9" s="13"/>
+      <c r="P9" s="22"/>
     </row>
     <row r="10" spans="1:16">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12">
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21">
         <v>591</v>
       </c>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="13">
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="22">
         <v>651</v>
       </c>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13">
+      <c r="H10" s="22"/>
+      <c r="I10" s="22">
         <v>849</v>
       </c>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13">
+      <c r="J10" s="22"/>
+      <c r="K10" s="22">
         <v>246</v>
       </c>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13">
+      <c r="L10" s="22"/>
+      <c r="M10" s="22">
         <v>357</v>
       </c>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13">
+      <c r="N10" s="22"/>
+      <c r="O10" s="22">
         <f t="shared" si="0"/>
         <v>2694</v>
       </c>
-      <c r="P10" s="13"/>
+      <c r="P10" s="22"/>
     </row>
     <row r="11" spans="1:16">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16">
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25">
         <f>SUM(D3,D4,D5,D6,D7,D8,D9,D10)</f>
         <v>8177</v>
       </c>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="18">
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="19">
         <f>SUM(G3:H10)</f>
         <v>4877</v>
       </c>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18">
+      <c r="H11" s="19"/>
+      <c r="I11" s="19">
         <f>SUM(I3:J10)</f>
         <v>7761</v>
       </c>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18">
+      <c r="J11" s="19"/>
+      <c r="K11" s="19">
         <f>SUM(K3:L10)</f>
         <v>15071</v>
       </c>
-      <c r="L11" s="18"/>
-      <c r="M11" s="18">
+      <c r="L11" s="19"/>
+      <c r="M11" s="19">
         <f>SUM(M3:N10)</f>
         <v>4188</v>
       </c>
-      <c r="N11" s="18"/>
-      <c r="O11" s="18">
+      <c r="N11" s="19"/>
+      <c r="O11" s="19">
         <f>SUM(O3:P10)</f>
         <v>40074</v>
       </c>
-      <c r="P11" s="18"/>
+      <c r="P11" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="72">
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G1:H2"/>
-    <mergeCell ref="I1:J2"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="K1:L2"/>
-    <mergeCell ref="M1:N2"/>
-    <mergeCell ref="O1:P2"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="D10:F10"/>
     <mergeCell ref="A11:C11"/>
     <mergeCell ref="D11:F11"/>
     <mergeCell ref="I3:J3"/>
@@ -2060,6 +2616,11 @@
     <mergeCell ref="D4:F4"/>
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="D5:F5"/>
+    <mergeCell ref="K1:L2"/>
+    <mergeCell ref="M1:N2"/>
+    <mergeCell ref="O1:P2"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="D10:F10"/>
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="D6:F6"/>
     <mergeCell ref="A1:C1"/>
@@ -2068,8 +2629,484 @@
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="D3:F3"/>
     <mergeCell ref="A3:C3"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="I1:J2"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G1:H2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46923BE8-F6C5-493D-8760-A4EA71703439}">
+  <dimension ref="A1:G20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6"/>
+  <cols>
+    <col min="1" max="1" width="9.59765625" customWidth="1"/>
+    <col min="2" max="2" width="17.3984375" customWidth="1"/>
+    <col min="3" max="3" width="8.69921875" customWidth="1"/>
+    <col min="4" max="4" width="17.69921875" customWidth="1"/>
+    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.19921875" customWidth="1"/>
+    <col min="7" max="7" width="17.69921875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="12">
+        <v>1</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="13">
+        <v>3</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="14">
+        <v>0.05</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="12">
+        <v>2</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="13">
+        <v>5</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="14">
+        <v>0.05</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="12">
+        <v>3</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="13">
+        <v>2</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" s="14">
+        <v>0.05</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="12">
+        <v>4</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="13">
+        <v>7</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="12">
+        <v>5</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="13">
+        <v>23</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="12">
+        <v>6</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="13">
+        <v>2</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" s="14">
+        <v>0</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="12">
+        <v>7</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="13">
+        <v>8</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8" s="14">
+        <v>0</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="12">
+        <v>8</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="13">
+        <v>1</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="12">
+        <v>9</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="13">
+        <v>3</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="E10" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="12">
+        <v>10</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="13">
+        <v>4</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="13">
+        <v>5</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12" s="14">
+        <v>0.05</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="12">
+        <v>12</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="13">
+        <v>2</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="12">
+        <v>13</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="13">
+        <v>10</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14" s="14">
+        <v>0.05</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="12">
+        <v>14</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="13">
+        <v>5</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="14">
+        <v>0.05</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="16.2" thickBot="1">
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="40" t="s">
+        <v>89</v>
+      </c>
+      <c r="F17" s="41"/>
+      <c r="G17" s="42"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="F18" s="35"/>
+      <c r="G18" s="36"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="F19" s="35"/>
+      <c r="G19" s="36"/>
+    </row>
+    <row r="20" spans="1:7" ht="16.2" thickBot="1">
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="F20" s="38"/>
+      <c r="G20" s="39"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="E17:G17"/>
+  </mergeCells>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 

--- a/my project.xlsx
+++ b/my project.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TRETEC\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WINDOWS 10\Desktop\final project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2BE31D3-BABE-4BBB-AB95-56E7B06F07A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A38D740E-4F0A-4B1F-B577-6B6FCCA6FE5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="feuille 1" sheetId="30" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="43">
   <si>
     <t>students</t>
   </si>
@@ -139,13 +139,13 @@
     <t>ID</t>
   </si>
   <si>
+    <t>PU</t>
+  </si>
+  <si>
     <t>QTE</t>
   </si>
   <si>
-    <t xml:space="preserve">      PU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       PT</t>
+    <t>PT</t>
   </si>
   <si>
     <t>Remise</t>
@@ -157,183 +157,27 @@
     <t>Total a payer</t>
   </si>
   <si>
-    <t xml:space="preserve">    - DZD</t>
-  </si>
-  <si>
-    <t>TVA:                          19%</t>
-  </si>
-  <si>
-    <t>120,00 DZD</t>
-  </si>
-  <si>
-    <t>56,00 DZD</t>
-  </si>
-  <si>
-    <t>70,00 DZD</t>
-  </si>
-  <si>
-    <t>430,00 DZD</t>
-  </si>
-  <si>
-    <t>230,00 DZD</t>
-  </si>
-  <si>
-    <t>10,00 DZD</t>
-  </si>
-  <si>
-    <t>5,00 DZD</t>
-  </si>
-  <si>
-    <t>5.040,00 DZD</t>
-  </si>
-  <si>
-    <t>1.200,00 DZD</t>
-  </si>
-  <si>
-    <t>480,00 DZD</t>
-  </si>
-  <si>
-    <t>33,00 DZD</t>
-  </si>
-  <si>
-    <t>15,00 DZD</t>
-  </si>
-  <si>
-    <t>24,00 DZD</t>
-  </si>
-  <si>
-    <t>360,00 DZD</t>
-  </si>
-  <si>
-    <t>280,00 DZD</t>
-  </si>
-  <si>
-    <t>140,00 DZD</t>
-  </si>
-  <si>
-    <t>3.010,00 DZD</t>
-  </si>
-  <si>
-    <t>5.290,00 DZD</t>
-  </si>
-  <si>
-    <t>20,00 DZD</t>
-  </si>
-  <si>
-    <t>40,00 DZD</t>
-  </si>
-  <si>
-    <t>3.600,00 DZD</t>
-  </si>
-  <si>
-    <t>1.920,00 DZD</t>
-  </si>
-  <si>
-    <t>165,00 DZD</t>
-  </si>
-  <si>
-    <t>2.400,00 DZD</t>
-  </si>
-  <si>
-    <t>150,00 DZD</t>
-  </si>
-  <si>
-    <t>18,00 DZD</t>
-  </si>
-  <si>
-    <t>14,00 DZD</t>
-  </si>
-  <si>
-    <t>7,00 DZD</t>
-  </si>
-  <si>
-    <t>301,00 DZD</t>
-  </si>
-  <si>
-    <t>529,00 DZD</t>
-  </si>
-  <si>
-    <t>504,00 DZD</t>
-  </si>
-  <si>
-    <t>192,00 DZD</t>
-  </si>
-  <si>
-    <t>8,25 DZD</t>
-  </si>
-  <si>
-    <t>240,00 DZD</t>
-  </si>
-  <si>
-    <t>7,50 DZD</t>
-  </si>
-  <si>
-    <t>6,00 DZD</t>
-  </si>
-  <si>
-    <t>342,00 DZD</t>
-  </si>
-  <si>
-    <t>266,00 DZD</t>
-  </si>
-  <si>
-    <t>133,00 DZD</t>
-  </si>
-  <si>
-    <t>2.709,00 DZD</t>
-  </si>
-  <si>
-    <t>4.761,00 DZD</t>
-  </si>
-  <si>
-    <t>4.536,00 DZD</t>
-  </si>
-  <si>
-    <t>3.240,00 DZD</t>
-  </si>
-  <si>
-    <t>1.728,00 DZD</t>
-  </si>
-  <si>
-    <t>156,75 DZD</t>
-  </si>
-  <si>
-    <t>2.160,00 DZD</t>
-  </si>
-  <si>
-    <t>142,50 DZD</t>
-  </si>
-  <si>
-    <t>114,00 DZD</t>
-  </si>
-  <si>
-    <t>Totale facture:     20.348,25 DZD</t>
-  </si>
-  <si>
-    <t>Val TVA:             3.866,17 DZD</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">TTC:               </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="4" tint="-0.499984740745262"/>
-        <rFont val="宋体"/>
-      </rPr>
-      <t xml:space="preserve"> 24.214,42 DZD</t>
-    </r>
+    <t>Total facture:</t>
+  </si>
+  <si>
+    <t>TVA:</t>
+  </si>
+  <si>
+    <t>Val TVA:</t>
+  </si>
+  <si>
+    <t>TIC:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="168" formatCode="_-* #,##0.00\ [$DZD]_-;\-* #,##0.00\ [$DZD]_-;_-* &quot;-&quot;??\ [$DZD]_-;_-@_-"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="13">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -403,22 +247,18 @@
     </font>
     <font>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
+      <b/>
       <sz val="12"/>
-      <color theme="4" tint="-0.499984740745262"/>
+      <color theme="4" tint="-0.249977111117893"/>
       <name val="宋体"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -463,12 +303,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -572,120 +418,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -728,24 +460,6 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -803,32 +517,50 @@
     <xf numFmtId="0" fontId="10" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="168" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="12" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -840,223 +572,7 @@
     <cellStyle name="Normal 4" xfId="4" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
     <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
   </cellStyles>
-  <dxfs count="9">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -1080,22 +596,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{58CEBB1C-63A2-4B23-B025-503D8E366BEC}" name="Table1" displayName="Table1" ref="A1:G15" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
-  <autoFilter ref="A1:G15" xr:uid="{58CEBB1C-63A2-4B23-B025-503D8E366BEC}"/>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{C26DB452-CAE8-4D50-82AF-986EE2B2BFC7}" name="ID" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{76C9D2BD-D07F-4DCA-84A1-059F728A8649}" name="      PU" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{7017561D-B1B9-4EE5-B5E3-2C4A204BAB71}" name="QTE" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{DB22B957-5049-4210-9EB4-EE1DD11C6A2C}" name="       PT" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{801EBFDA-A774-4766-B948-DAD58A43764B}" name="Remise" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{7A90EE86-14C5-4ED3-9F7E-2A38290ACC6B}" name="Val Remise" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{5D461916-C8D7-4F49-AFA8-2B53CBEA0CDE}" name="Total a payer" dataDxfId="0"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1367,19 +867,19 @@
       <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="14.296875" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" customWidth="1"/>
     <col min="3" max="3" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="19.5" customHeight="1">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="17"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="11"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
@@ -1848,133 +1348,133 @@
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="27" t="s">
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27" t="s">
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="22">
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="16">
         <v>8177</v>
       </c>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23">
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17">
         <f>(D2/8)</f>
         <v>1022.125</v>
       </c>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="22">
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="16">
         <v>4877</v>
       </c>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23">
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17">
         <f t="shared" ref="G3:G6" si="0">(D3/8)</f>
         <v>609.625</v>
       </c>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="22">
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="16">
         <v>7761</v>
       </c>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23">
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17">
         <f t="shared" si="0"/>
         <v>970.125</v>
       </c>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="22">
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="16">
         <v>15071</v>
       </c>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23">
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17">
         <f t="shared" si="0"/>
         <v>1883.875</v>
       </c>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="22">
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="16">
         <v>4188</v>
       </c>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23">
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17">
         <f t="shared" si="0"/>
         <v>523.5</v>
       </c>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="19">
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="13">
         <f>SUM(D2,D3,D4,D5,D6)</f>
         <v>40074</v>
       </c>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20">
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14">
         <f>(D7/40)</f>
         <v>1001.85</v>
       </c>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -2010,190 +1510,190 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:F1"/>
+      <selection activeCell="G10" sqref="G10:I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25" t="s">
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21">
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15">
         <v>14127</v>
       </c>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="28">
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="22">
         <f>(D2/5)</f>
         <v>2825.4</v>
       </c>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21">
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15">
         <v>5253</v>
       </c>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="28">
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="22">
         <f>(D3/5)</f>
         <v>1050.5999999999999</v>
       </c>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21">
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15">
         <v>4965</v>
       </c>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="28">
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="22">
         <f>(D4/5)</f>
         <v>993</v>
       </c>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21">
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15">
         <v>6247</v>
       </c>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="28">
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="22">
         <f t="shared" ref="G5:G9" si="0">(D5/5)</f>
         <v>1249.4000000000001</v>
       </c>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21">
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15">
         <v>2240</v>
       </c>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="28">
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="22">
         <f t="shared" si="0"/>
         <v>448</v>
       </c>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21">
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15">
         <v>1887</v>
       </c>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="28">
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="22">
         <f t="shared" si="0"/>
         <v>377.4</v>
       </c>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21">
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15">
         <v>2661</v>
       </c>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="28">
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="22">
         <f t="shared" si="0"/>
         <v>532.20000000000005</v>
       </c>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21">
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15">
         <v>2694</v>
       </c>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="28">
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="22">
         <f t="shared" si="0"/>
         <v>538.79999999999995</v>
       </c>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25">
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19">
         <f>SUM(D2:F9)</f>
         <v>40074</v>
       </c>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="29">
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="23">
         <f>(D10/40)</f>
         <v>1001.85</v>
       </c>
-      <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="30">
@@ -2240,363 +1740,363 @@
       <selection activeCell="O1" sqref="O1:P2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="30" t="s">
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="31"/>
-      <c r="I1" s="30" t="s">
+      <c r="H1" s="25"/>
+      <c r="I1" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="31"/>
-      <c r="K1" s="30" t="s">
+      <c r="J1" s="25"/>
+      <c r="K1" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="31"/>
-      <c r="M1" s="30" t="s">
+      <c r="L1" s="25"/>
+      <c r="M1" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="N1" s="31"/>
-      <c r="O1" s="30" t="s">
+      <c r="N1" s="25"/>
+      <c r="O1" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="P1" s="31"/>
+      <c r="P1" s="25"/>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25" t="s">
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="33"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="27"/>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21">
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15">
         <v>1358</v>
       </c>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="22">
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="16">
         <v>972</v>
       </c>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22">
+      <c r="H3" s="16"/>
+      <c r="I3" s="16">
         <v>1579</v>
       </c>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22">
+      <c r="J3" s="16"/>
+      <c r="K3" s="16">
         <v>9567</v>
       </c>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22">
+      <c r="L3" s="16"/>
+      <c r="M3" s="16">
         <v>651</v>
       </c>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22">
+      <c r="N3" s="16"/>
+      <c r="O3" s="16">
         <f>SUM(D3,G3,I3,K3,M3)</f>
         <v>14127</v>
       </c>
-      <c r="P3" s="22"/>
+      <c r="P3" s="16"/>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21">
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15">
         <v>849</v>
       </c>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="22">
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="16">
         <v>608</v>
       </c>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22">
+      <c r="H4" s="16"/>
+      <c r="I4" s="16">
         <v>1688</v>
       </c>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22">
+      <c r="J4" s="16"/>
+      <c r="K4" s="16">
         <v>1793</v>
       </c>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22">
+      <c r="L4" s="16"/>
+      <c r="M4" s="16">
         <v>315</v>
       </c>
-      <c r="N4" s="22"/>
-      <c r="O4" s="22">
+      <c r="N4" s="16"/>
+      <c r="O4" s="16">
         <f t="shared" ref="O4:O10" si="0">SUM(D4,G4,I4,K4,M4)</f>
         <v>5253</v>
       </c>
-      <c r="P4" s="22"/>
+      <c r="P4" s="16"/>
     </row>
     <row r="5" spans="1:16">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21">
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15">
         <v>1355</v>
       </c>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="22">
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="16">
         <v>552</v>
       </c>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22">
+      <c r="H5" s="16"/>
+      <c r="I5" s="16">
         <v>1889</v>
       </c>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22">
+      <c r="J5" s="16"/>
+      <c r="K5" s="16">
         <v>618</v>
       </c>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22">
+      <c r="L5" s="16"/>
+      <c r="M5" s="16">
         <v>551</v>
       </c>
-      <c r="N5" s="22"/>
-      <c r="O5" s="22">
+      <c r="N5" s="16"/>
+      <c r="O5" s="16">
         <f t="shared" si="0"/>
         <v>4965</v>
       </c>
-      <c r="P5" s="22"/>
+      <c r="P5" s="16"/>
     </row>
     <row r="6" spans="1:16">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21">
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15">
         <v>3155</v>
       </c>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="22">
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="16">
         <v>542</v>
       </c>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22">
+      <c r="H6" s="16"/>
+      <c r="I6" s="16">
         <v>316</v>
       </c>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22">
+      <c r="J6" s="16"/>
+      <c r="K6" s="16">
         <v>547</v>
       </c>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22">
+      <c r="L6" s="16"/>
+      <c r="M6" s="16">
         <v>1687</v>
       </c>
-      <c r="N6" s="22"/>
-      <c r="O6" s="22">
+      <c r="N6" s="16"/>
+      <c r="O6" s="16">
         <f t="shared" si="0"/>
         <v>6247</v>
       </c>
-      <c r="P6" s="22"/>
+      <c r="P6" s="16"/>
     </row>
     <row r="7" spans="1:16">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21">
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15">
         <v>173</v>
       </c>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="22">
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="16">
         <v>346</v>
       </c>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22">
+      <c r="H7" s="16"/>
+      <c r="I7" s="16">
         <v>615</v>
       </c>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22">
+      <c r="J7" s="16"/>
+      <c r="K7" s="16">
         <v>948</v>
       </c>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22">
+      <c r="L7" s="16"/>
+      <c r="M7" s="16">
         <v>158</v>
       </c>
-      <c r="N7" s="22"/>
-      <c r="O7" s="22">
+      <c r="N7" s="16"/>
+      <c r="O7" s="16">
         <f t="shared" si="0"/>
         <v>2240</v>
       </c>
-      <c r="P7" s="22"/>
+      <c r="P7" s="16"/>
     </row>
     <row r="8" spans="1:16">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21">
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15">
         <v>135</v>
       </c>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="22">
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="16">
         <v>234</v>
       </c>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22">
+      <c r="H8" s="16"/>
+      <c r="I8" s="16">
         <v>632</v>
       </c>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22">
+      <c r="J8" s="16"/>
+      <c r="K8" s="16">
         <v>568</v>
       </c>
-      <c r="L8" s="22"/>
-      <c r="M8" s="22">
+      <c r="L8" s="16"/>
+      <c r="M8" s="16">
         <v>318</v>
       </c>
-      <c r="N8" s="22"/>
-      <c r="O8" s="22">
+      <c r="N8" s="16"/>
+      <c r="O8" s="16">
         <f t="shared" si="0"/>
         <v>1887</v>
       </c>
-      <c r="P8" s="22"/>
+      <c r="P8" s="16"/>
     </row>
     <row r="9" spans="1:16">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21">
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15">
         <v>561</v>
       </c>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="22">
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="16">
         <v>972</v>
       </c>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22">
+      <c r="H9" s="16"/>
+      <c r="I9" s="16">
         <v>193</v>
       </c>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22">
+      <c r="J9" s="16"/>
+      <c r="K9" s="16">
         <v>784</v>
       </c>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22">
+      <c r="L9" s="16"/>
+      <c r="M9" s="16">
         <v>151</v>
       </c>
-      <c r="N9" s="22"/>
-      <c r="O9" s="22">
+      <c r="N9" s="16"/>
+      <c r="O9" s="16">
         <f t="shared" si="0"/>
         <v>2661</v>
       </c>
-      <c r="P9" s="22"/>
+      <c r="P9" s="16"/>
     </row>
     <row r="10" spans="1:16">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21">
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15">
         <v>591</v>
       </c>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="22">
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="16">
         <v>651</v>
       </c>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22">
+      <c r="H10" s="16"/>
+      <c r="I10" s="16">
         <v>849</v>
       </c>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22">
+      <c r="J10" s="16"/>
+      <c r="K10" s="16">
         <v>246</v>
       </c>
-      <c r="L10" s="22"/>
-      <c r="M10" s="22">
+      <c r="L10" s="16"/>
+      <c r="M10" s="16">
         <v>357</v>
       </c>
-      <c r="N10" s="22"/>
-      <c r="O10" s="22">
+      <c r="N10" s="16"/>
+      <c r="O10" s="16">
         <f t="shared" si="0"/>
         <v>2694</v>
       </c>
-      <c r="P10" s="22"/>
+      <c r="P10" s="16"/>
     </row>
     <row r="11" spans="1:16">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25">
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19">
         <f>SUM(D3,D4,D5,D6,D7,D8,D9,D10)</f>
         <v>8177</v>
       </c>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="19">
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="13">
         <f>SUM(G3:H10)</f>
         <v>4877</v>
       </c>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19">
+      <c r="H11" s="13"/>
+      <c r="I11" s="13">
         <f>SUM(I3:J10)</f>
         <v>7761</v>
       </c>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19">
+      <c r="J11" s="13"/>
+      <c r="K11" s="13">
         <f>SUM(K3:L10)</f>
         <v>15071</v>
       </c>
-      <c r="L11" s="19"/>
-      <c r="M11" s="19">
+      <c r="L11" s="13"/>
+      <c r="M11" s="13">
         <f>SUM(M3:N10)</f>
         <v>4188</v>
       </c>
-      <c r="N11" s="19"/>
-      <c r="O11" s="19">
+      <c r="N11" s="13"/>
+      <c r="O11" s="13">
         <f>SUM(O3:P10)</f>
         <v>40074</v>
       </c>
-      <c r="P11" s="19"/>
+      <c r="P11" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="72">
@@ -2632,6 +2132,7 @@
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O6:P6"/>
     <mergeCell ref="K3:L3"/>
     <mergeCell ref="M3:N3"/>
     <mergeCell ref="O3:P3"/>
@@ -2645,7 +2146,6 @@
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="M5:N5"/>
     <mergeCell ref="O5:P5"/>
-    <mergeCell ref="O6:P6"/>
     <mergeCell ref="I1:J2"/>
     <mergeCell ref="I11:J11"/>
     <mergeCell ref="K11:L11"/>
@@ -2678,435 +2178,459 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46923BE8-F6C5-493D-8760-A4EA71703439}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02144370-76B3-4406-BB7E-AFA3E32C66D1}">
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.59765625" customWidth="1"/>
-    <col min="2" max="2" width="17.3984375" customWidth="1"/>
-    <col min="3" max="3" width="8.69921875" customWidth="1"/>
-    <col min="4" max="4" width="17.69921875" customWidth="1"/>
-    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.19921875" customWidth="1"/>
-    <col min="7" max="7" width="17.69921875" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" customWidth="1"/>
+    <col min="2" max="2" width="15.75" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="4" max="4" width="17.5" customWidth="1"/>
+    <col min="5" max="5" width="13.08203125" customWidth="1"/>
+    <col min="6" max="6" width="14.75" customWidth="1"/>
+    <col min="7" max="7" width="18.4140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:7" ht="15.5">
+      <c r="A1" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="D1" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="38" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.5">
+      <c r="A2" s="40">
+        <v>1</v>
+      </c>
+      <c r="B2" s="33">
+        <v>120</v>
+      </c>
+      <c r="C2" s="35">
+        <v>3</v>
+      </c>
+      <c r="D2" s="33">
+        <v>360</v>
+      </c>
+      <c r="E2" s="36" t="str">
+        <f t="shared" ref="E2:E5" si="0">IF(AND(999&gt;D2,D2&gt;100),"5%",IF(D2&gt;=1000,"10%","0%"))</f>
+        <v>5%</v>
+      </c>
+      <c r="F2" s="33">
+        <f>E2*D2</f>
+        <v>18</v>
+      </c>
+      <c r="G2" s="33">
+        <f>D2-F2</f>
+        <v>342</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.5">
+      <c r="A3" s="41">
+        <v>2</v>
+      </c>
+      <c r="B3" s="30">
+        <v>56</v>
+      </c>
+      <c r="C3" s="34">
+        <v>5</v>
+      </c>
+      <c r="D3" s="30">
+        <v>280</v>
+      </c>
+      <c r="E3" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>5%</v>
+      </c>
+      <c r="F3" s="30">
+        <f t="shared" ref="F3:F15" si="1">E3*D3</f>
+        <v>14</v>
+      </c>
+      <c r="G3" s="30">
+        <f t="shared" ref="G3:G15" si="2">D3-F3</f>
+        <v>266</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.5">
+      <c r="A4" s="40">
+        <v>3</v>
+      </c>
+      <c r="B4" s="33">
+        <v>70</v>
+      </c>
+      <c r="C4" s="35">
+        <v>2</v>
+      </c>
+      <c r="D4" s="33">
+        <v>140</v>
+      </c>
+      <c r="E4" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>5%</v>
+      </c>
+      <c r="F4" s="33">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="G4" s="33">
+        <f t="shared" si="2"/>
+        <v>133</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.5">
+      <c r="A5" s="41">
+        <v>4</v>
+      </c>
+      <c r="B5" s="30">
+        <v>430</v>
+      </c>
+      <c r="C5" s="34">
+        <v>7</v>
+      </c>
+      <c r="D5" s="30">
+        <v>3010</v>
+      </c>
+      <c r="E5" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>10%</v>
+      </c>
+      <c r="F5" s="30">
+        <f t="shared" si="1"/>
+        <v>301</v>
+      </c>
+      <c r="G5" s="30">
+        <f t="shared" si="2"/>
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.5">
+      <c r="A6" s="40">
+        <v>5</v>
+      </c>
+      <c r="B6" s="33">
+        <v>230</v>
+      </c>
+      <c r="C6" s="35">
+        <v>23</v>
+      </c>
+      <c r="D6" s="33">
+        <v>5290</v>
+      </c>
+      <c r="E6" s="36" t="str">
+        <f>IF(AND(999&gt;D6,D6&gt;100),"5%",IF(D6&gt;=1000,"10%","0%"))</f>
+        <v>10%</v>
+      </c>
+      <c r="F6" s="33">
+        <f t="shared" si="1"/>
+        <v>529</v>
+      </c>
+      <c r="G6" s="33">
+        <f t="shared" si="2"/>
+        <v>4761</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.5">
+      <c r="A7" s="41">
+        <v>6</v>
+      </c>
+      <c r="B7" s="30">
+        <v>10</v>
+      </c>
+      <c r="C7" s="34">
+        <v>2</v>
+      </c>
+      <c r="D7" s="30">
+        <v>20</v>
+      </c>
+      <c r="E7" s="37" t="str">
+        <f t="shared" ref="E7:E15" si="3">IF(AND(999&gt;D7,D7&gt;100),"5%",IF(D7&gt;=1000,"10%","0%"))</f>
+        <v>0%</v>
+      </c>
+      <c r="F7" s="30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G7" s="30">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15.5">
+      <c r="A8" s="40">
+        <v>7</v>
+      </c>
+      <c r="B8" s="33">
+        <v>5</v>
+      </c>
+      <c r="C8" s="35">
+        <v>8</v>
+      </c>
+      <c r="D8" s="33">
+        <v>40</v>
+      </c>
+      <c r="E8" s="36" t="str">
+        <f t="shared" si="3"/>
+        <v>0%</v>
+      </c>
+      <c r="F8" s="33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G8" s="33">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.5">
+      <c r="A9" s="41">
+        <v>8</v>
+      </c>
+      <c r="B9" s="30">
+        <v>5040</v>
+      </c>
+      <c r="C9" s="34">
+        <v>1</v>
+      </c>
+      <c r="D9" s="30">
+        <v>5040</v>
+      </c>
+      <c r="E9" s="37" t="str">
+        <f t="shared" si="3"/>
+        <v>10%</v>
+      </c>
+      <c r="F9" s="30">
+        <f t="shared" si="1"/>
+        <v>504</v>
+      </c>
+      <c r="G9" s="30">
+        <f t="shared" si="2"/>
+        <v>4536</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.5">
+      <c r="A10" s="40">
+        <v>9</v>
+      </c>
+      <c r="B10" s="33">
+        <v>1200</v>
+      </c>
+      <c r="C10" s="35">
+        <v>3</v>
+      </c>
+      <c r="D10" s="33">
+        <v>3600</v>
+      </c>
+      <c r="E10" s="36" t="str">
+        <f t="shared" si="3"/>
+        <v>10%</v>
+      </c>
+      <c r="F10" s="33">
+        <f t="shared" si="1"/>
+        <v>360</v>
+      </c>
+      <c r="G10" s="33">
+        <f t="shared" si="2"/>
+        <v>3240</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15.5">
+      <c r="A11" s="41">
+        <v>10</v>
+      </c>
+      <c r="B11" s="30">
+        <v>480</v>
+      </c>
+      <c r="C11" s="34">
+        <v>4</v>
+      </c>
+      <c r="D11" s="30">
+        <v>1920</v>
+      </c>
+      <c r="E11" s="37" t="str">
+        <f t="shared" si="3"/>
+        <v>10%</v>
+      </c>
+      <c r="F11" s="30">
+        <f t="shared" si="1"/>
+        <v>192</v>
+      </c>
+      <c r="G11" s="30">
+        <f t="shared" si="2"/>
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15.5">
+      <c r="A12" s="40">
+        <v>11</v>
+      </c>
+      <c r="B12" s="33">
         <v>33</v>
       </c>
-      <c r="D1" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="12">
-        <v>1</v>
-      </c>
-      <c r="B2" s="13" t="s">
+      <c r="C12" s="35">
+        <v>5</v>
+      </c>
+      <c r="D12" s="33">
+        <v>165</v>
+      </c>
+      <c r="E12" s="36" t="str">
+        <f t="shared" si="3"/>
+        <v>5%</v>
+      </c>
+      <c r="F12" s="33">
+        <f t="shared" si="1"/>
+        <v>8.25</v>
+      </c>
+      <c r="G12" s="33">
+        <f t="shared" si="2"/>
+        <v>156.75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15.5">
+      <c r="A13" s="41">
+        <v>12</v>
+      </c>
+      <c r="B13" s="30">
+        <v>1200</v>
+      </c>
+      <c r="C13" s="34">
+        <v>2</v>
+      </c>
+      <c r="D13" s="30">
+        <v>2400</v>
+      </c>
+      <c r="E13" s="37" t="str">
+        <f t="shared" si="3"/>
+        <v>10%</v>
+      </c>
+      <c r="F13" s="30">
+        <f t="shared" si="1"/>
+        <v>240</v>
+      </c>
+      <c r="G13" s="30">
+        <f t="shared" si="2"/>
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15.5">
+      <c r="A14" s="40">
+        <v>13</v>
+      </c>
+      <c r="B14" s="33">
+        <v>15</v>
+      </c>
+      <c r="C14" s="35">
+        <v>10</v>
+      </c>
+      <c r="D14" s="33">
+        <v>150</v>
+      </c>
+      <c r="E14" s="36" t="str">
+        <f t="shared" si="3"/>
+        <v>5%</v>
+      </c>
+      <c r="F14" s="33">
+        <f t="shared" si="1"/>
+        <v>7.5</v>
+      </c>
+      <c r="G14" s="33">
+        <f t="shared" si="2"/>
+        <v>142.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15.5">
+      <c r="A15" s="41">
+        <v>14</v>
+      </c>
+      <c r="B15" s="30">
+        <v>24</v>
+      </c>
+      <c r="C15" s="34">
+        <v>5</v>
+      </c>
+      <c r="D15" s="30">
+        <v>120</v>
+      </c>
+      <c r="E15" s="37" t="str">
+        <f t="shared" si="3"/>
+        <v>5%</v>
+      </c>
+      <c r="F15" s="30">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="G15" s="30">
+        <f t="shared" si="2"/>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="17" spans="5:7">
+      <c r="E17" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17" s="32"/>
+      <c r="G17" s="29">
+        <f>SUM(G2,G3,G4,G5,G6,G7,G8,G9,G10,G11,G12,G13,G14,G15,)</f>
+        <v>20348.25</v>
+      </c>
+    </row>
+    <row r="18" spans="5:7">
+      <c r="E18" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="F18" s="32"/>
+      <c r="G18" s="28">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="19" spans="5:7">
+      <c r="E19" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="13">
-        <v>3</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="E2" s="14">
-        <v>0.05</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="12">
-        <v>2</v>
-      </c>
-      <c r="B3" s="13" t="s">
+      <c r="F19" s="32"/>
+      <c r="G19" s="29">
+        <f>G17*G18</f>
+        <v>3866.1675</v>
+      </c>
+    </row>
+    <row r="20" spans="5:7">
+      <c r="E20" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="13">
-        <v>5</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="E3" s="14">
-        <v>0.05</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="12">
-        <v>3</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="13">
-        <v>2</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="E4" s="14">
-        <v>0.05</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="12">
-        <v>4</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" s="13">
-        <v>7</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="E5" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="12">
-        <v>5</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="C6" s="13">
-        <v>23</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="E6" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="12">
-        <v>6</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" s="13">
-        <v>2</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="E7" s="14">
-        <v>0</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="12">
-        <v>7</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" s="13">
-        <v>8</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="E8" s="14">
-        <v>0</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="12">
-        <v>8</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" s="13">
-        <v>1</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="12">
-        <v>9</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" s="13">
-        <v>3</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="E10" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="12">
-        <v>10</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="C11" s="13">
-        <v>4</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="E11" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="12">
-        <v>11</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="C12" s="13">
-        <v>5</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="E12" s="14">
-        <v>0.05</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="12">
-        <v>12</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" s="13">
-        <v>2</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="E13" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="F13" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="G13" s="13" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="12">
-        <v>13</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="C14" s="13">
-        <v>10</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="E14" s="14">
-        <v>0.05</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="G14" s="13" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="12">
-        <v>14</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" s="13">
-        <v>5</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E15" s="14">
-        <v>0.05</v>
-      </c>
-      <c r="F15" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="G15" s="13" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="16.2" thickBot="1">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="40" t="s">
-        <v>89</v>
-      </c>
-      <c r="F17" s="41"/>
-      <c r="G17" s="42"/>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="F18" s="35"/>
-      <c r="G18" s="36"/>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="34" t="s">
-        <v>90</v>
-      </c>
-      <c r="F19" s="35"/>
-      <c r="G19" s="36"/>
-    </row>
-    <row r="20" spans="1:7" ht="16.2" thickBot="1">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="37" t="s">
-        <v>91</v>
-      </c>
-      <c r="F20" s="38"/>
-      <c r="G20" s="39"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="42">
+        <f>G17+G19</f>
+        <v>24214.4175</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
   </mergeCells>
-  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/my project.xlsx
+++ b/my project.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WINDOWS 10\Desktop\final project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TRETEC\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A38D740E-4F0A-4B1F-B577-6B6FCCA6FE5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACE6CD2D-ADAE-4F88-8484-07C37B33693C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="feuille 1" sheetId="30" r:id="rId1"/>
@@ -18,7 +18,19 @@
     <sheet name="feuille 3" sheetId="32" r:id="rId3"/>
     <sheet name="feuille 4" sheetId="33" r:id="rId4"/>
     <sheet name="feuille 5" sheetId="34" r:id="rId5"/>
+    <sheet name="feuille 6" sheetId="35" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">'feuille 6'!$A$2:$A$11</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'feuille 6'!$C$1</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'feuille 6'!$C$2:$C$11</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'feuille 6'!$A$2:$A$11</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'feuille 6'!$C$1</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'feuille 6'!$C$2:$C$11</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">'feuille 6'!$A$2:$A$11</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">'feuille 6'!$C$1</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">'feuille 6'!$C$2:$C$11</definedName>
+  </definedNames>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -38,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="46">
   <si>
     <t>students</t>
   </si>
@@ -168,6 +180,15 @@
   <si>
     <t>TIC:</t>
   </si>
+  <si>
+    <t>Time(s)</t>
+  </si>
+  <si>
+    <t>Distance(m)</t>
+  </si>
+  <si>
+    <t>Speed(m/s)</t>
+  </si>
 </sst>
 </file>
 
@@ -175,9 +196,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="168" formatCode="_-* #,##0.00\ [$DZD]_-;\-* #,##0.00\ [$DZD]_-;_-* &quot;-&quot;??\ [$DZD]_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$DZD]_-;\-* #,##0.00\ [$DZD]_-;_-* &quot;-&quot;??\ [$DZD]_-;_-@_-"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -256,6 +277,11 @@
       <sz val="12"/>
       <color theme="4" tint="-0.249977111117893"/>
       <name val="宋体"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="10">
@@ -460,6 +486,45 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -470,13 +535,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -491,13 +556,13 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -517,50 +582,11 @@
     <xf numFmtId="0" fontId="10" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="11" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="11" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="11" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="12" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -596,6 +622,1957 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Speed/Distance</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'feuille 6'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Distance(m)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'feuille 6'!$B$2:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>91</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'feuille 6'!$C$2:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.1666666666666661</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.375</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.2222222222222214</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EDDA-4161-8C6D-AEAD0F1B093B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="769366784"/>
+        <c:axId val="769373856"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="769366784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="769373856"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="769373856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="769366784"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Speed/Time</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'feuille 6'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Speed(m/s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'feuille 6'!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'feuille 6'!$C$2:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.1666666666666661</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.375</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.2222222222222214</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-18DE-429A-9D7E-9D56DC5EC1B9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="779008560"/>
+        <c:axId val="779012720"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="779008560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="779012720"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="779012720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="779008560"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3810</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59A297E3-FA83-4156-910B-54CFF34AEADD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>636270</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E3D433D-6037-48A2-92D1-F7F50C195D55}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -867,19 +2844,19 @@
       <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" customWidth="1"/>
+    <col min="2" max="2" width="14.296875" customWidth="1"/>
     <col min="3" max="3" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="19.5" customHeight="1">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="11"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="24"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
@@ -1348,148 +3325,136 @@
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.6"/>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="21" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21" t="s">
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="16">
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="29">
         <v>8177</v>
       </c>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17">
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30">
         <f>(D2/8)</f>
         <v>1022.125</v>
       </c>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="16">
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="29">
         <v>4877</v>
       </c>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17">
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30">
         <f t="shared" ref="G3:G6" si="0">(D3/8)</f>
         <v>609.625</v>
       </c>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="16">
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="29">
         <v>7761</v>
       </c>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17">
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30">
         <f t="shared" si="0"/>
         <v>970.125</v>
       </c>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="16">
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="29">
         <v>15071</v>
       </c>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17">
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30">
         <f t="shared" si="0"/>
         <v>1883.875</v>
       </c>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="16">
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="29">
         <v>4188</v>
       </c>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17">
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30">
         <f t="shared" si="0"/>
         <v>523.5</v>
       </c>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="13">
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="33">
         <f>SUM(D2,D3,D4,D5,D6)</f>
         <v>40074</v>
       </c>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14">
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34">
         <f>(D7/40)</f>
         <v>1001.85</v>
       </c>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="G4:I4"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="D7:F7"/>
     <mergeCell ref="G7:I7"/>
@@ -1499,6 +3464,18 @@
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="D6:F6"/>
     <mergeCell ref="G6:I6"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:I2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1513,220 +3490,220 @@
       <selection activeCell="G10" sqref="G10:I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.6"/>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19" t="s">
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15">
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28">
         <v>14127</v>
       </c>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="22">
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="35">
         <f>(D2/5)</f>
         <v>2825.4</v>
       </c>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15">
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28">
         <v>5253</v>
       </c>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="22">
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="35">
         <f>(D3/5)</f>
         <v>1050.5999999999999</v>
       </c>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15">
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28">
         <v>4965</v>
       </c>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="22">
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="35">
         <f>(D4/5)</f>
         <v>993</v>
       </c>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15">
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28">
         <v>6247</v>
       </c>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="22">
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="35">
         <f t="shared" ref="G5:G9" si="0">(D5/5)</f>
         <v>1249.4000000000001</v>
       </c>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15">
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28">
         <v>2240</v>
       </c>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="22">
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="35">
         <f t="shared" si="0"/>
         <v>448</v>
       </c>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15">
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28">
         <v>1887</v>
       </c>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="22">
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="35">
         <f t="shared" si="0"/>
         <v>377.4</v>
       </c>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15">
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28">
         <v>2661</v>
       </c>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="22">
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="35">
         <f t="shared" si="0"/>
         <v>532.20000000000005</v>
       </c>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15">
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28">
         <v>2694</v>
       </c>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="22">
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="35">
         <f t="shared" si="0"/>
         <v>538.79999999999995</v>
       </c>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19">
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25">
         <f>SUM(D2:F9)</f>
         <v>40074</v>
       </c>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="23">
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="36">
         <f>(D10/40)</f>
         <v>1001.85</v>
       </c>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="G4:I4"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="G2:I2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1740,366 +3717,422 @@
       <selection activeCell="O1" sqref="O1:P2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.6"/>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="24" t="s">
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="25"/>
-      <c r="I1" s="24" t="s">
+      <c r="H1" s="38"/>
+      <c r="I1" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="25"/>
-      <c r="K1" s="24" t="s">
+      <c r="J1" s="38"/>
+      <c r="K1" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="25"/>
-      <c r="M1" s="24" t="s">
+      <c r="L1" s="38"/>
+      <c r="M1" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="N1" s="25"/>
-      <c r="O1" s="24" t="s">
+      <c r="N1" s="38"/>
+      <c r="O1" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="P1" s="25"/>
+      <c r="P1" s="38"/>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19" t="s">
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="27"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="39"/>
+      <c r="P2" s="40"/>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15">
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28">
         <v>1358</v>
       </c>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="16">
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="29">
         <v>972</v>
       </c>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16">
+      <c r="H3" s="29"/>
+      <c r="I3" s="29">
         <v>1579</v>
       </c>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16">
+      <c r="J3" s="29"/>
+      <c r="K3" s="29">
         <v>9567</v>
       </c>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16">
+      <c r="L3" s="29"/>
+      <c r="M3" s="29">
         <v>651</v>
       </c>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16">
+      <c r="N3" s="29"/>
+      <c r="O3" s="29">
         <f>SUM(D3,G3,I3,K3,M3)</f>
         <v>14127</v>
       </c>
-      <c r="P3" s="16"/>
+      <c r="P3" s="29"/>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15">
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28">
         <v>849</v>
       </c>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="16">
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="29">
         <v>608</v>
       </c>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16">
+      <c r="H4" s="29"/>
+      <c r="I4" s="29">
         <v>1688</v>
       </c>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16">
+      <c r="J4" s="29"/>
+      <c r="K4" s="29">
         <v>1793</v>
       </c>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16">
+      <c r="L4" s="29"/>
+      <c r="M4" s="29">
         <v>315</v>
       </c>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16">
+      <c r="N4" s="29"/>
+      <c r="O4" s="29">
         <f t="shared" ref="O4:O10" si="0">SUM(D4,G4,I4,K4,M4)</f>
         <v>5253</v>
       </c>
-      <c r="P4" s="16"/>
+      <c r="P4" s="29"/>
     </row>
     <row r="5" spans="1:16">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15">
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28">
         <v>1355</v>
       </c>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="16">
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="29">
         <v>552</v>
       </c>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16">
+      <c r="H5" s="29"/>
+      <c r="I5" s="29">
         <v>1889</v>
       </c>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16">
+      <c r="J5" s="29"/>
+      <c r="K5" s="29">
         <v>618</v>
       </c>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16">
+      <c r="L5" s="29"/>
+      <c r="M5" s="29">
         <v>551</v>
       </c>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16">
+      <c r="N5" s="29"/>
+      <c r="O5" s="29">
         <f t="shared" si="0"/>
         <v>4965</v>
       </c>
-      <c r="P5" s="16"/>
+      <c r="P5" s="29"/>
     </row>
     <row r="6" spans="1:16">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15">
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28">
         <v>3155</v>
       </c>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="16">
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="29">
         <v>542</v>
       </c>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16">
+      <c r="H6" s="29"/>
+      <c r="I6" s="29">
         <v>316</v>
       </c>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16">
+      <c r="J6" s="29"/>
+      <c r="K6" s="29">
         <v>547</v>
       </c>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16">
+      <c r="L6" s="29"/>
+      <c r="M6" s="29">
         <v>1687</v>
       </c>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16">
+      <c r="N6" s="29"/>
+      <c r="O6" s="29">
         <f t="shared" si="0"/>
         <v>6247</v>
       </c>
-      <c r="P6" s="16"/>
+      <c r="P6" s="29"/>
     </row>
     <row r="7" spans="1:16">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15">
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28">
         <v>173</v>
       </c>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="16">
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="29">
         <v>346</v>
       </c>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16">
+      <c r="H7" s="29"/>
+      <c r="I7" s="29">
         <v>615</v>
       </c>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16">
+      <c r="J7" s="29"/>
+      <c r="K7" s="29">
         <v>948</v>
       </c>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16">
+      <c r="L7" s="29"/>
+      <c r="M7" s="29">
         <v>158</v>
       </c>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16">
+      <c r="N7" s="29"/>
+      <c r="O7" s="29">
         <f t="shared" si="0"/>
         <v>2240</v>
       </c>
-      <c r="P7" s="16"/>
+      <c r="P7" s="29"/>
     </row>
     <row r="8" spans="1:16">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15">
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28">
         <v>135</v>
       </c>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="16">
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="29">
         <v>234</v>
       </c>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16">
+      <c r="H8" s="29"/>
+      <c r="I8" s="29">
         <v>632</v>
       </c>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16">
+      <c r="J8" s="29"/>
+      <c r="K8" s="29">
         <v>568</v>
       </c>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16">
+      <c r="L8" s="29"/>
+      <c r="M8" s="29">
         <v>318</v>
       </c>
-      <c r="N8" s="16"/>
-      <c r="O8" s="16">
+      <c r="N8" s="29"/>
+      <c r="O8" s="29">
         <f t="shared" si="0"/>
         <v>1887</v>
       </c>
-      <c r="P8" s="16"/>
+      <c r="P8" s="29"/>
     </row>
     <row r="9" spans="1:16">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15">
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28">
         <v>561</v>
       </c>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="16">
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="29">
         <v>972</v>
       </c>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16">
+      <c r="H9" s="29"/>
+      <c r="I9" s="29">
         <v>193</v>
       </c>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16">
+      <c r="J9" s="29"/>
+      <c r="K9" s="29">
         <v>784</v>
       </c>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16">
+      <c r="L9" s="29"/>
+      <c r="M9" s="29">
         <v>151</v>
       </c>
-      <c r="N9" s="16"/>
-      <c r="O9" s="16">
+      <c r="N9" s="29"/>
+      <c r="O9" s="29">
         <f t="shared" si="0"/>
         <v>2661</v>
       </c>
-      <c r="P9" s="16"/>
+      <c r="P9" s="29"/>
     </row>
     <row r="10" spans="1:16">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15">
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28">
         <v>591</v>
       </c>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="16">
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="29">
         <v>651</v>
       </c>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16">
+      <c r="H10" s="29"/>
+      <c r="I10" s="29">
         <v>849</v>
       </c>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16">
+      <c r="J10" s="29"/>
+      <c r="K10" s="29">
         <v>246</v>
       </c>
-      <c r="L10" s="16"/>
-      <c r="M10" s="16">
+      <c r="L10" s="29"/>
+      <c r="M10" s="29">
         <v>357</v>
       </c>
-      <c r="N10" s="16"/>
-      <c r="O10" s="16">
+      <c r="N10" s="29"/>
+      <c r="O10" s="29">
         <f t="shared" si="0"/>
         <v>2694</v>
       </c>
-      <c r="P10" s="16"/>
+      <c r="P10" s="29"/>
     </row>
     <row r="11" spans="1:16">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19">
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25">
         <f>SUM(D3,D4,D5,D6,D7,D8,D9,D10)</f>
         <v>8177</v>
       </c>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="13">
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="33">
         <f>SUM(G3:H10)</f>
         <v>4877</v>
       </c>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13">
+      <c r="H11" s="33"/>
+      <c r="I11" s="33">
         <f>SUM(I3:J10)</f>
         <v>7761</v>
       </c>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13">
+      <c r="J11" s="33"/>
+      <c r="K11" s="33">
         <f>SUM(K3:L10)</f>
         <v>15071</v>
       </c>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13">
+      <c r="L11" s="33"/>
+      <c r="M11" s="33">
         <f>SUM(M3:N10)</f>
         <v>4188</v>
       </c>
-      <c r="N11" s="13"/>
-      <c r="O11" s="13">
+      <c r="N11" s="33"/>
+      <c r="O11" s="33">
         <f>SUM(O3:P10)</f>
         <v>40074</v>
       </c>
-      <c r="P11" s="13"/>
+      <c r="P11" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="72">
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G1:H2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I1:J2"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="K1:L2"/>
+    <mergeCell ref="M1:N2"/>
+    <mergeCell ref="O1:P2"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M6:N6"/>
     <mergeCell ref="A11:C11"/>
     <mergeCell ref="D11:F11"/>
     <mergeCell ref="I3:J3"/>
@@ -2116,62 +4149,6 @@
     <mergeCell ref="D4:F4"/>
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="D5:F5"/>
-    <mergeCell ref="K1:L2"/>
-    <mergeCell ref="M1:N2"/>
-    <mergeCell ref="O1:P2"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="I1:J2"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G1:H2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2181,443 +4158,443 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02144370-76B3-4406-BB7E-AFA3E32C66D1}">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" customWidth="1"/>
-    <col min="2" max="2" width="15.75" customWidth="1"/>
+    <col min="1" max="1" width="11.296875" customWidth="1"/>
+    <col min="2" max="2" width="15.69921875" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
     <col min="4" max="4" width="17.5" customWidth="1"/>
-    <col min="5" max="5" width="13.08203125" customWidth="1"/>
-    <col min="6" max="6" width="14.75" customWidth="1"/>
-    <col min="7" max="7" width="18.4140625" customWidth="1"/>
+    <col min="5" max="5" width="13.09765625" customWidth="1"/>
+    <col min="6" max="6" width="14.69921875" customWidth="1"/>
+    <col min="7" max="7" width="18.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.5">
-      <c r="A1" s="39" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="38" t="s">
+      <c r="E1" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="38" t="s">
+      <c r="F1" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="G1" s="38" t="s">
+      <c r="G1" s="17" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.5">
-      <c r="A2" s="40">
+    <row r="2" spans="1:7">
+      <c r="A2" s="19">
         <v>1</v>
       </c>
-      <c r="B2" s="33">
+      <c r="B2" s="12">
         <v>120</v>
       </c>
-      <c r="C2" s="35">
+      <c r="C2" s="14">
         <v>3</v>
       </c>
-      <c r="D2" s="33">
+      <c r="D2" s="12">
         <v>360</v>
       </c>
-      <c r="E2" s="36" t="str">
-        <f t="shared" ref="E2:E5" si="0">IF(AND(999&gt;D2,D2&gt;100),"5%",IF(D2&gt;=1000,"10%","0%"))</f>
+      <c r="E2" s="15" t="str">
+        <f>IF(AND(999&gt;D2,D2&gt;100),"5%",IF(D2&gt;=1000,"10%","0%"))</f>
         <v>5%</v>
       </c>
-      <c r="F2" s="33">
+      <c r="F2" s="12">
         <f>E2*D2</f>
         <v>18</v>
       </c>
-      <c r="G2" s="33">
+      <c r="G2" s="12">
         <f>D2-F2</f>
         <v>342</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.5">
-      <c r="A3" s="41">
+    <row r="3" spans="1:7">
+      <c r="A3" s="20">
         <v>2</v>
       </c>
-      <c r="B3" s="30">
+      <c r="B3" s="11">
         <v>56</v>
       </c>
-      <c r="C3" s="34">
+      <c r="C3" s="13">
         <v>5</v>
       </c>
-      <c r="D3" s="30">
+      <c r="D3" s="11">
         <v>280</v>
       </c>
-      <c r="E3" s="37" t="str">
+      <c r="E3" s="16" t="str">
+        <f t="shared" ref="E2:E5" si="0">IF(AND(999&gt;D3,D3&gt;100),"5%",IF(D3&gt;=1000,"10%","0%"))</f>
+        <v>5%</v>
+      </c>
+      <c r="F3" s="11">
+        <f t="shared" ref="F3:F15" si="1">E3*D3</f>
+        <v>14</v>
+      </c>
+      <c r="G3" s="11">
+        <f t="shared" ref="G3:G15" si="2">D3-F3</f>
+        <v>266</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="19">
+        <v>3</v>
+      </c>
+      <c r="B4" s="12">
+        <v>70</v>
+      </c>
+      <c r="C4" s="14">
+        <v>2</v>
+      </c>
+      <c r="D4" s="12">
+        <v>140</v>
+      </c>
+      <c r="E4" s="15" t="str">
         <f t="shared" si="0"/>
         <v>5%</v>
       </c>
-      <c r="F3" s="30">
-        <f t="shared" ref="F3:F15" si="1">E3*D3</f>
-        <v>14</v>
-      </c>
-      <c r="G3" s="30">
-        <f t="shared" ref="G3:G15" si="2">D3-F3</f>
-        <v>266</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15.5">
-      <c r="A4" s="40">
-        <v>3</v>
-      </c>
-      <c r="B4" s="33">
-        <v>70</v>
-      </c>
-      <c r="C4" s="35">
-        <v>2</v>
-      </c>
-      <c r="D4" s="33">
-        <v>140</v>
-      </c>
-      <c r="E4" s="36" t="str">
-        <f t="shared" si="0"/>
-        <v>5%</v>
-      </c>
-      <c r="F4" s="33">
+      <c r="F4" s="12">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="G4" s="33">
+      <c r="G4" s="12">
         <f t="shared" si="2"/>
         <v>133</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.5">
-      <c r="A5" s="41">
+    <row r="5" spans="1:7">
+      <c r="A5" s="20">
         <v>4</v>
       </c>
-      <c r="B5" s="30">
+      <c r="B5" s="11">
         <v>430</v>
       </c>
-      <c r="C5" s="34">
+      <c r="C5" s="13">
         <v>7</v>
       </c>
-      <c r="D5" s="30">
+      <c r="D5" s="11">
         <v>3010</v>
       </c>
-      <c r="E5" s="37" t="str">
+      <c r="E5" s="16" t="str">
         <f t="shared" si="0"/>
         <v>10%</v>
       </c>
-      <c r="F5" s="30">
+      <c r="F5" s="11">
         <f t="shared" si="1"/>
         <v>301</v>
       </c>
-      <c r="G5" s="30">
+      <c r="G5" s="11">
         <f t="shared" si="2"/>
         <v>2709</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.5">
-      <c r="A6" s="40">
+    <row r="6" spans="1:7">
+      <c r="A6" s="19">
         <v>5</v>
       </c>
-      <c r="B6" s="33">
+      <c r="B6" s="12">
         <v>230</v>
       </c>
-      <c r="C6" s="35">
+      <c r="C6" s="14">
         <v>23</v>
       </c>
-      <c r="D6" s="33">
+      <c r="D6" s="12">
         <v>5290</v>
       </c>
-      <c r="E6" s="36" t="str">
+      <c r="E6" s="15" t="str">
         <f>IF(AND(999&gt;D6,D6&gt;100),"5%",IF(D6&gt;=1000,"10%","0%"))</f>
         <v>10%</v>
       </c>
-      <c r="F6" s="33">
+      <c r="F6" s="12">
         <f t="shared" si="1"/>
         <v>529</v>
       </c>
-      <c r="G6" s="33">
+      <c r="G6" s="12">
         <f t="shared" si="2"/>
         <v>4761</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.5">
-      <c r="A7" s="41">
+    <row r="7" spans="1:7">
+      <c r="A7" s="20">
         <v>6</v>
       </c>
-      <c r="B7" s="30">
+      <c r="B7" s="11">
         <v>10</v>
       </c>
-      <c r="C7" s="34">
+      <c r="C7" s="13">
         <v>2</v>
       </c>
-      <c r="D7" s="30">
+      <c r="D7" s="11">
         <v>20</v>
       </c>
-      <c r="E7" s="37" t="str">
+      <c r="E7" s="16" t="str">
         <f t="shared" ref="E7:E15" si="3">IF(AND(999&gt;D7,D7&gt;100),"5%",IF(D7&gt;=1000,"10%","0%"))</f>
         <v>0%</v>
       </c>
-      <c r="F7" s="30">
+      <c r="F7" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G7" s="30">
+      <c r="G7" s="11">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.5">
-      <c r="A8" s="40">
+    <row r="8" spans="1:7">
+      <c r="A8" s="19">
         <v>7</v>
       </c>
-      <c r="B8" s="33">
+      <c r="B8" s="12">
         <v>5</v>
       </c>
-      <c r="C8" s="35">
+      <c r="C8" s="14">
         <v>8</v>
       </c>
-      <c r="D8" s="33">
+      <c r="D8" s="12">
         <v>40</v>
       </c>
-      <c r="E8" s="36" t="str">
+      <c r="E8" s="15" t="str">
         <f t="shared" si="3"/>
         <v>0%</v>
       </c>
-      <c r="F8" s="33">
+      <c r="F8" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G8" s="33">
+      <c r="G8" s="12">
         <f t="shared" si="2"/>
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.5">
-      <c r="A9" s="41">
+    <row r="9" spans="1:7">
+      <c r="A9" s="20">
         <v>8</v>
       </c>
-      <c r="B9" s="30">
+      <c r="B9" s="11">
         <v>5040</v>
       </c>
-      <c r="C9" s="34">
+      <c r="C9" s="13">
         <v>1</v>
       </c>
-      <c r="D9" s="30">
+      <c r="D9" s="11">
         <v>5040</v>
       </c>
-      <c r="E9" s="37" t="str">
+      <c r="E9" s="16" t="str">
         <f t="shared" si="3"/>
         <v>10%</v>
       </c>
-      <c r="F9" s="30">
+      <c r="F9" s="11">
         <f t="shared" si="1"/>
         <v>504</v>
       </c>
-      <c r="G9" s="30">
+      <c r="G9" s="11">
         <f t="shared" si="2"/>
         <v>4536</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.5">
-      <c r="A10" s="40">
+    <row r="10" spans="1:7">
+      <c r="A10" s="19">
         <v>9</v>
       </c>
-      <c r="B10" s="33">
+      <c r="B10" s="12">
         <v>1200</v>
       </c>
-      <c r="C10" s="35">
+      <c r="C10" s="14">
         <v>3</v>
       </c>
-      <c r="D10" s="33">
+      <c r="D10" s="12">
         <v>3600</v>
       </c>
-      <c r="E10" s="36" t="str">
+      <c r="E10" s="15" t="str">
         <f t="shared" si="3"/>
         <v>10%</v>
       </c>
-      <c r="F10" s="33">
+      <c r="F10" s="12">
         <f t="shared" si="1"/>
         <v>360</v>
       </c>
-      <c r="G10" s="33">
+      <c r="G10" s="12">
         <f t="shared" si="2"/>
         <v>3240</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.5">
-      <c r="A11" s="41">
+    <row r="11" spans="1:7">
+      <c r="A11" s="20">
         <v>10</v>
       </c>
-      <c r="B11" s="30">
+      <c r="B11" s="11">
         <v>480</v>
       </c>
-      <c r="C11" s="34">
+      <c r="C11" s="13">
         <v>4</v>
       </c>
-      <c r="D11" s="30">
+      <c r="D11" s="11">
         <v>1920</v>
       </c>
-      <c r="E11" s="37" t="str">
+      <c r="E11" s="16" t="str">
         <f t="shared" si="3"/>
         <v>10%</v>
       </c>
-      <c r="F11" s="30">
+      <c r="F11" s="11">
         <f t="shared" si="1"/>
         <v>192</v>
       </c>
-      <c r="G11" s="30">
+      <c r="G11" s="11">
         <f t="shared" si="2"/>
         <v>1728</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.5">
-      <c r="A12" s="40">
+    <row r="12" spans="1:7">
+      <c r="A12" s="19">
         <v>11</v>
       </c>
-      <c r="B12" s="33">
+      <c r="B12" s="12">
         <v>33</v>
       </c>
-      <c r="C12" s="35">
+      <c r="C12" s="14">
         <v>5</v>
       </c>
-      <c r="D12" s="33">
+      <c r="D12" s="12">
         <v>165</v>
       </c>
-      <c r="E12" s="36" t="str">
+      <c r="E12" s="15" t="str">
         <f t="shared" si="3"/>
         <v>5%</v>
       </c>
-      <c r="F12" s="33">
+      <c r="F12" s="12">
         <f t="shared" si="1"/>
         <v>8.25</v>
       </c>
-      <c r="G12" s="33">
+      <c r="G12" s="12">
         <f t="shared" si="2"/>
         <v>156.75</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.5">
-      <c r="A13" s="41">
+    <row r="13" spans="1:7">
+      <c r="A13" s="20">
         <v>12</v>
       </c>
-      <c r="B13" s="30">
+      <c r="B13" s="11">
         <v>1200</v>
       </c>
-      <c r="C13" s="34">
+      <c r="C13" s="13">
         <v>2</v>
       </c>
-      <c r="D13" s="30">
+      <c r="D13" s="11">
         <v>2400</v>
       </c>
-      <c r="E13" s="37" t="str">
+      <c r="E13" s="16" t="str">
         <f t="shared" si="3"/>
         <v>10%</v>
       </c>
-      <c r="F13" s="30">
+      <c r="F13" s="11">
         <f t="shared" si="1"/>
         <v>240</v>
       </c>
-      <c r="G13" s="30">
+      <c r="G13" s="11">
         <f t="shared" si="2"/>
         <v>2160</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.5">
-      <c r="A14" s="40">
+    <row r="14" spans="1:7">
+      <c r="A14" s="19">
         <v>13</v>
       </c>
-      <c r="B14" s="33">
+      <c r="B14" s="12">
         <v>15</v>
       </c>
-      <c r="C14" s="35">
+      <c r="C14" s="14">
         <v>10</v>
       </c>
-      <c r="D14" s="33">
+      <c r="D14" s="12">
         <v>150</v>
       </c>
-      <c r="E14" s="36" t="str">
+      <c r="E14" s="15" t="str">
         <f t="shared" si="3"/>
         <v>5%</v>
       </c>
-      <c r="F14" s="33">
+      <c r="F14" s="12">
         <f t="shared" si="1"/>
         <v>7.5</v>
       </c>
-      <c r="G14" s="33">
+      <c r="G14" s="12">
         <f t="shared" si="2"/>
         <v>142.5</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.5">
-      <c r="A15" s="41">
+    <row r="15" spans="1:7">
+      <c r="A15" s="20">
         <v>14</v>
       </c>
-      <c r="B15" s="30">
+      <c r="B15" s="11">
         <v>24</v>
       </c>
-      <c r="C15" s="34">
+      <c r="C15" s="13">
         <v>5</v>
       </c>
-      <c r="D15" s="30">
+      <c r="D15" s="11">
         <v>120</v>
       </c>
-      <c r="E15" s="37" t="str">
+      <c r="E15" s="16" t="str">
         <f t="shared" si="3"/>
         <v>5%</v>
       </c>
-      <c r="F15" s="30">
+      <c r="F15" s="11">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="G15" s="30">
+      <c r="G15" s="11">
         <f t="shared" si="2"/>
         <v>114</v>
       </c>
     </row>
     <row r="17" spans="5:7">
-      <c r="E17" s="31" t="s">
+      <c r="E17" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="F17" s="32"/>
-      <c r="G17" s="29">
+      <c r="F17" s="42"/>
+      <c r="G17" s="10">
         <f>SUM(G2,G3,G4,G5,G6,G7,G8,G9,G10,G11,G12,G13,G14,G15,)</f>
         <v>20348.25</v>
       </c>
     </row>
     <row r="18" spans="5:7">
-      <c r="E18" s="31" t="s">
+      <c r="E18" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="32"/>
-      <c r="G18" s="28">
+      <c r="F18" s="42"/>
+      <c r="G18" s="9">
         <v>0.19</v>
       </c>
     </row>
     <row r="19" spans="5:7">
-      <c r="E19" s="31" t="s">
+      <c r="E19" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="F19" s="32"/>
-      <c r="G19" s="29">
+      <c r="F19" s="42"/>
+      <c r="G19" s="10">
         <f>G17*G18</f>
         <v>3866.1675</v>
       </c>
     </row>
     <row r="20" spans="5:7">
-      <c r="E20" s="31" t="s">
+      <c r="E20" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="F20" s="32"/>
-      <c r="G20" s="42">
+      <c r="F20" s="42"/>
+      <c r="G20" s="21">
         <f>G17+G19</f>
         <v>24214.4175</v>
       </c>
@@ -2631,6 +4608,159 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9845A22-46DD-45DC-9BC4-89B1D0D0BA4E}">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6"/>
+  <cols>
+    <col min="1" max="1" width="14.296875" customWidth="1"/>
+    <col min="2" max="2" width="14.796875" customWidth="1"/>
+    <col min="3" max="3" width="13.8984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="19">
+        <v>1</v>
+      </c>
+      <c r="B2" s="19">
+        <v>5</v>
+      </c>
+      <c r="C2" s="19">
+        <f>B2/A2</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="20">
+        <v>2</v>
+      </c>
+      <c r="B3" s="20">
+        <v>10</v>
+      </c>
+      <c r="C3" s="20">
+        <f>B3/A3</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="19">
+        <v>3</v>
+      </c>
+      <c r="B4" s="19">
+        <v>17</v>
+      </c>
+      <c r="C4" s="19">
+        <f>B4/A4</f>
+        <v>5.666666666666667</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="20">
+        <v>4</v>
+      </c>
+      <c r="B5" s="20">
+        <v>27</v>
+      </c>
+      <c r="C5" s="20">
+        <f>B5/A5</f>
+        <v>6.75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="19">
+        <v>5</v>
+      </c>
+      <c r="B6" s="19">
+        <v>37</v>
+      </c>
+      <c r="C6" s="19">
+        <f>B6/A6</f>
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="20">
+        <v>6</v>
+      </c>
+      <c r="B7" s="20">
+        <v>49</v>
+      </c>
+      <c r="C7" s="20">
+        <f>B7/A7</f>
+        <v>8.1666666666666661</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="19">
+        <v>7</v>
+      </c>
+      <c r="B8" s="19">
+        <v>63</v>
+      </c>
+      <c r="C8" s="19">
+        <f>B8/A8</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="20">
+        <v>8</v>
+      </c>
+      <c r="B9" s="20">
+        <v>75</v>
+      </c>
+      <c r="C9" s="20">
+        <f>B9/A9</f>
+        <v>9.375</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="19">
+        <v>9</v>
+      </c>
+      <c r="B10" s="19">
+        <v>83</v>
+      </c>
+      <c r="C10" s="19">
+        <f>B10/A10</f>
+        <v>9.2222222222222214</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="20">
+        <v>10</v>
+      </c>
+      <c r="B11" s="20">
+        <v>91</v>
+      </c>
+      <c r="C11" s="20">
+        <f>B11/A11</f>
+        <v>9.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="13" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
